--- a/PolicyEffectiveness/0-DayLag_MainePolicy.xlsx
+++ b/PolicyEffectiveness/0-DayLag_MainePolicy.xlsx
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2423,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2479,7 +2479,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -2591,7 +2591,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2647,7 +2647,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -2703,7 +2703,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -2815,13 +2815,13 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G34">
         <v>1</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -2871,13 +2871,13 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G35">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <v>0</v>
@@ -2927,13 +2927,13 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2983,13 +2983,13 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G37">
         <v>1</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37">
         <v>0</v>
@@ -3039,13 +3039,13 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G38">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38">
         <v>0</v>
@@ -3095,13 +3095,13 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G39">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -3151,13 +3151,13 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G40">
         <v>1</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40">
         <v>0</v>
@@ -3207,13 +3207,13 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G41">
         <v>1</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -3263,13 +3263,13 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42">
         <v>0</v>
@@ -3319,13 +3319,13 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G43">
         <v>1</v>
       </c>
       <c r="H43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -3375,13 +3375,13 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G44">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44">
         <v>0</v>
@@ -3431,13 +3431,13 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G45">
         <v>1</v>
       </c>
       <c r="H45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45">
         <v>0</v>
@@ -3487,13 +3487,13 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G46">
         <v>1</v>
       </c>
       <c r="H46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -3543,13 +3543,13 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G47">
         <v>1</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47">
         <v>0</v>
@@ -3599,13 +3599,13 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G48">
         <v>1</v>
       </c>
       <c r="H48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48">
         <v>0</v>
@@ -3655,13 +3655,13 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G49">
         <v>1</v>
       </c>
       <c r="H49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G50">
         <v>1</v>
       </c>
       <c r="H50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -3767,13 +3767,13 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G51">
         <v>1</v>
       </c>
       <c r="H51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -3823,13 +3823,13 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G52">
         <v>1</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G53">
         <v>1</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53">
         <v>0</v>
@@ -3935,13 +3935,13 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54">
         <v>0</v>
@@ -3991,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G55">
         <v>1</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55">
         <v>0</v>
@@ -4047,13 +4047,13 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G56">
         <v>1</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56">
         <v>0</v>
@@ -4103,13 +4103,13 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -4159,13 +4159,13 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G58">
         <v>1</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -4215,13 +4215,13 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <v>0</v>
@@ -4271,13 +4271,13 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G60">
         <v>1</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -4327,13 +4327,13 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G61">
         <v>1</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <v>0</v>
@@ -4383,13 +4383,13 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G62">
         <v>1</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -4439,13 +4439,13 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G63">
         <v>1</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
         <v>0</v>
@@ -4495,13 +4495,13 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G64">
         <v>1</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64">
         <v>0</v>
@@ -4551,13 +4551,13 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G65">
         <v>1</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -4607,13 +4607,13 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -4663,13 +4663,13 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G67">
         <v>1</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67">
         <v>0</v>
@@ -4719,13 +4719,13 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G68">
         <v>1</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -4775,13 +4775,13 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G69">
         <v>1</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -4831,13 +4831,13 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G70">
         <v>1</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70">
         <v>0</v>
@@ -4887,13 +4887,13 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G71">
         <v>1</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
         <v>0</v>
@@ -4943,13 +4943,13 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G72">
         <v>1</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72">
         <v>0</v>
@@ -4999,13 +4999,13 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G73">
         <v>1</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <v>0</v>
@@ -5055,13 +5055,13 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G74">
         <v>1</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74">
         <v>0</v>
@@ -5111,13 +5111,13 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75">
         <v>0</v>
@@ -5167,13 +5167,13 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G76">
         <v>1</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76">
         <v>0</v>
@@ -5223,13 +5223,13 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G77">
         <v>1</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -5279,13 +5279,13 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G78">
         <v>1</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78">
         <v>0</v>
@@ -5335,13 +5335,13 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G79">
         <v>1</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79">
         <v>0</v>
@@ -5391,13 +5391,13 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G80">
         <v>1</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -5447,13 +5447,13 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G81">
         <v>1</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81">
         <v>0</v>
@@ -5503,13 +5503,13 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G82">
         <v>1</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -5559,13 +5559,13 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83">
         <v>0</v>
@@ -5615,13 +5615,13 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G84">
         <v>1</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <v>0</v>
@@ -5671,13 +5671,13 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G85">
         <v>1</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85">
         <v>0</v>
@@ -5727,13 +5727,13 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G86">
         <v>1</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86">
         <v>0</v>
@@ -5783,13 +5783,13 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
         <v>0</v>
@@ -5839,13 +5839,13 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G88">
         <v>1</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <v>0</v>
@@ -5895,13 +5895,13 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -5951,13 +5951,13 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G90">
         <v>1</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90">
         <v>0</v>
@@ -6007,13 +6007,13 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G91">
         <v>1</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -6063,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G92">
         <v>1</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92">
         <v>0</v>
@@ -6119,13 +6119,13 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G93">
         <v>1</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93">
         <v>0</v>
@@ -6175,13 +6175,13 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G94">
         <v>0</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <v>0</v>
@@ -6231,13 +6231,13 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G95">
         <v>0</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -6287,13 +6287,13 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G96">
         <v>0</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96">
         <v>0</v>
@@ -6343,13 +6343,13 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G97">
         <v>0</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97">
         <v>0</v>
@@ -6399,13 +6399,13 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G98">
         <v>0</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98">
         <v>0</v>
@@ -6455,13 +6455,13 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G99">
         <v>0</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99">
         <v>0</v>
@@ -6511,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G100">
         <v>0</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100">
         <v>0</v>
@@ -6567,13 +6567,13 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G101">
         <v>0</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <v>0</v>
@@ -6623,13 +6623,13 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G102">
         <v>0</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102">
         <v>0</v>
@@ -6679,13 +6679,13 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G103">
         <v>0</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103">
         <v>0</v>
@@ -6735,13 +6735,13 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G104">
         <v>0</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104">
         <v>0</v>
@@ -6791,13 +6791,13 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G105">
         <v>0</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105">
         <v>0</v>
@@ -6847,13 +6847,13 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G106">
         <v>0</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106">
         <v>0</v>
@@ -6903,13 +6903,13 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G107">
         <v>0</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107">
         <v>0</v>
@@ -6959,13 +6959,13 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G108">
         <v>0</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108">
         <v>0</v>
@@ -7015,13 +7015,13 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G109">
         <v>0</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109">
         <v>0</v>
@@ -7071,13 +7071,13 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G110">
         <v>0</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110">
         <v>0</v>
@@ -7127,13 +7127,13 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G111">
         <v>0</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111">
         <v>0</v>
@@ -7183,13 +7183,13 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G112">
         <v>0</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112">
         <v>0</v>
@@ -7239,13 +7239,13 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G113">
         <v>0</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113">
         <v>0</v>
@@ -7295,13 +7295,13 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G114">
         <v>0</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -7351,13 +7351,13 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G115">
         <v>0</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115">
         <v>0</v>
@@ -7407,13 +7407,13 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G116">
         <v>0</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116">
         <v>0</v>
@@ -7463,13 +7463,13 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G117">
         <v>0</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117">
         <v>0</v>
@@ -7519,13 +7519,13 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G118">
         <v>0</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118">
         <v>0</v>
@@ -7575,13 +7575,13 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G119">
         <v>0</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -7631,13 +7631,13 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G120">
         <v>0</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -7687,13 +7687,13 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G121">
         <v>0</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121">
         <v>0</v>
@@ -7743,13 +7743,13 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G122">
         <v>0</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122">
         <v>0</v>
@@ -7799,13 +7799,13 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G123">
         <v>0</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123">
         <v>0</v>
@@ -7855,13 +7855,13 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="G124">
         <v>0</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124">
         <v>0</v>
@@ -7911,13 +7911,13 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G125">
         <v>0</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125">
         <v>0</v>
@@ -7967,13 +7967,13 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G126">
         <v>0</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126">
         <v>0</v>
@@ -8023,13 +8023,13 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G127">
         <v>0</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127">
         <v>0</v>
@@ -8079,13 +8079,13 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G128">
         <v>0</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128">
         <v>0</v>
@@ -8135,13 +8135,13 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G129">
         <v>0</v>
       </c>
       <c r="H129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129">
         <v>0</v>
@@ -8191,13 +8191,13 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G130">
         <v>0</v>
       </c>
       <c r="H130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130">
         <v>0</v>
@@ -8247,13 +8247,13 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G131">
         <v>0</v>
       </c>
       <c r="H131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131">
         <v>0</v>
@@ -8303,13 +8303,13 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G132">
         <v>0</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132">
         <v>0</v>
@@ -8365,7 +8365,7 @@
         <v>0</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133">
         <v>0</v>
@@ -8421,7 +8421,7 @@
         <v>0</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134">
         <v>0</v>
@@ -8477,7 +8477,7 @@
         <v>0</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135">
         <v>0</v>
@@ -8533,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136">
         <v>0</v>
@@ -8589,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="H137">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137">
         <v>0</v>
@@ -8645,7 +8645,7 @@
         <v>0</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138">
         <v>0</v>
@@ -8701,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="H139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139">
         <v>0</v>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="H140">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="H141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141">
         <v>0</v>
@@ -8869,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142">
         <v>0</v>
@@ -8925,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143">
         <v>0</v>
@@ -8981,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -9037,7 +9037,7 @@
         <v>0</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145">
         <v>0</v>
@@ -9093,7 +9093,7 @@
         <v>0</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146">
         <v>0</v>
@@ -9149,7 +9149,7 @@
         <v>0</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147">
         <v>0</v>
@@ -9205,7 +9205,7 @@
         <v>0</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148">
         <v>0</v>
@@ -9261,7 +9261,7 @@
         <v>0</v>
       </c>
       <c r="H149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149">
         <v>0</v>
@@ -9317,7 +9317,7 @@
         <v>0</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150">
         <v>0</v>
@@ -9373,7 +9373,7 @@
         <v>0</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151">
         <v>0</v>
@@ -9429,7 +9429,7 @@
         <v>0</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152">
         <v>0</v>
@@ -9485,7 +9485,7 @@
         <v>0</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153">
         <v>0</v>
@@ -9541,7 +9541,7 @@
         <v>0</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154">
         <v>0</v>
@@ -9597,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="H155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>0</v>
       </c>
       <c r="H156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156">
         <v>0</v>
@@ -9709,7 +9709,7 @@
         <v>0</v>
       </c>
       <c r="H157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157">
         <v>0</v>
@@ -9765,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="H158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158">
         <v>0</v>
@@ -9821,7 +9821,7 @@
         <v>0</v>
       </c>
       <c r="H159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159">
         <v>0</v>
@@ -9877,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="H160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160">
         <v>0</v>
@@ -9933,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="H161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161">
         <v>0</v>
@@ -9989,7 +9989,7 @@
         <v>0</v>
       </c>
       <c r="H162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162">
         <v>0</v>
@@ -10045,7 +10045,7 @@
         <v>0</v>
       </c>
       <c r="H163">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163">
         <v>0</v>
@@ -10101,7 +10101,7 @@
         <v>0</v>
       </c>
       <c r="H164">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164">
         <v>0</v>
@@ -10157,7 +10157,7 @@
         <v>0</v>
       </c>
       <c r="H165">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165">
         <v>0</v>
@@ -10213,7 +10213,7 @@
         <v>0</v>
       </c>
       <c r="H166">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166">
         <v>0</v>
@@ -10269,7 +10269,7 @@
         <v>0</v>
       </c>
       <c r="H167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167">
         <v>0</v>
@@ -10325,7 +10325,7 @@
         <v>0</v>
       </c>
       <c r="H168">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168">
         <v>0</v>
@@ -10381,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="H169">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169">
         <v>0</v>
@@ -10437,7 +10437,7 @@
         <v>0</v>
       </c>
       <c r="H170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170">
         <v>0</v>
@@ -10493,7 +10493,7 @@
         <v>0</v>
       </c>
       <c r="H171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171">
         <v>0</v>
@@ -10549,7 +10549,7 @@
         <v>0</v>
       </c>
       <c r="H172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172">
         <v>0</v>
@@ -10605,7 +10605,7 @@
         <v>0</v>
       </c>
       <c r="H173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173">
         <v>0</v>
@@ -10661,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="H174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174">
         <v>0</v>
@@ -10717,7 +10717,7 @@
         <v>0</v>
       </c>
       <c r="H175">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175">
         <v>0</v>
@@ -10773,7 +10773,7 @@
         <v>0</v>
       </c>
       <c r="H176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176">
         <v>0</v>
